--- a/Simulator Rules_v02.xlsx
+++ b/Simulator Rules_v02.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1115" documentId="8_{FBE89FF5-3566-4289-92B3-E35F02CCFA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F925ED7-99BC-48EE-BF06-29C5B3DBCE93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47816025-4218-4AF6-9B83-CAF14279B4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="924" firstSheet="2" activeTab="5" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="924" firstSheet="2" activeTab="2" xr2:uid="{01B1E72B-5336-4561-ACF1-819786852B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="TAB at Supplier level" sheetId="2" state="hidden" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Spend &amp; NMI Change calculation" sheetId="8" r:id="rId4"/>
     <sheet name="Simulator - Calculations" sheetId="4" r:id="rId5"/>
     <sheet name="Simulator - masks_1" sheetId="6" r:id="rId6"/>
-    <sheet name="Simulator - masks_2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Simulator - Calculations'!$A$10:$O$16</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="258">
   <si>
     <t>Filters</t>
   </si>
@@ -926,7 +925,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color theme="1"/>
@@ -1122,12 +1121,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1219,20 +1212,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ABBvoice"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ABBvoice"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="ABBvoice"/>
@@ -1245,46 +1224,6 @@
       <name val="ABBvoice"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1962,7 +1901,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1998,113 +1937,84 @@
     <xf numFmtId="9" fontId="22" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="30" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="28" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="30" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="30" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="55" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="29" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="29" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="29" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="55" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="55" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="55" applyFont="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="30" fillId="0" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="28" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="55" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" xfId="55" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="55" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="55" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="40" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="39" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="22" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="28" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="48" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="51" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="27" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2120,10 +2030,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2135,18 +2045,18 @@
     <xf numFmtId="14" fontId="22" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2156,104 +2066,104 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="33" borderId="21" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="33" borderId="21" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="48" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="59" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="33" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2262,10 +2172,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2283,7 +2193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2313,7 +2223,7 @@
     <xf numFmtId="166" fontId="4" fillId="37" borderId="14" xfId="54" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="60" fillId="37" borderId="14" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="51" fillId="37" borderId="14" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2322,19 +2232,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="61" fillId="37" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="52" fillId="37" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="62" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="53" fillId="33" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="37" borderId="0" xfId="54" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2342,9 +2255,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -4713,13 +4623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F157D98D-3F2A-4B62-8ED2-C86AF67AD988}">
   <dimension ref="A3:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="127"/>
+    <col min="1" max="1" width="8.69921875" style="102"/>
     <col min="4" max="4" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4728,26 +4638,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="128" t="s">
+    <row r="5" spans="1:15" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="127">
+      <c r="A6" s="102">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -4755,7 +4665,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="127">
+      <c r="A7" s="102">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -4763,7 +4673,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="127">
+      <c r="A9" s="102">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -4771,7 +4681,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="127">
+      <c r="B10" s="102">
         <v>3.1</v>
       </c>
       <c r="C10" t="s">
@@ -4779,7 +4689,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="127">
+      <c r="B11" s="102">
         <v>3.2</v>
       </c>
       <c r="C11" t="s">
@@ -4787,10 +4697,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="127"/>
+      <c r="B12" s="102"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="127"/>
+      <c r="B13" s="102"/>
       <c r="D13" t="s">
         <v>78</v>
       </c>
@@ -4799,10 +4709,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127"/>
+      <c r="B14" s="102"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="127">
+      <c r="B15" s="102">
         <v>3.3</v>
       </c>
       <c r="C15" t="s">
@@ -4815,23 +4725,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="128" t="s">
+    <row r="19" spans="2:15" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="79" t="s">
@@ -4865,23 +4775,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="128" t="s">
+    <row r="28" spans="2:15" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="79" t="s">
@@ -4903,53 +4813,53 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="128" t="s">
+    <row r="34" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-    </row>
-    <row r="35" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="127">
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+    </row>
+    <row r="35" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="102">
         <v>1</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="104" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:16" s="129" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B38" s="129" t="s">
+    <row r="37" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:16" s="104" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B38" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="129" t="s">
+      <c r="G38" s="104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="129" t="s">
+    <row r="39" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:16" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="127">
+    <row r="40" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:16" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="102">
         <v>2</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="104" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4959,19 +4869,19 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129" t="s">
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
       <c r="K44" t="s">
         <v>106</v>
       </c>
@@ -5004,15 +4914,15 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="129" t="s">
+      <c r="B46" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="K46" s="191" t="s">
+      <c r="K46" s="166" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="129" t="s">
+      <c r="B47" s="104" t="s">
         <v>101</v>
       </c>
       <c r="K47" t="s">
@@ -5028,15 +4938,15 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="127">
+      <c r="A49" s="102">
         <v>3</v>
       </c>
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="104" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="129" t="s">
+      <c r="B50" s="104" t="s">
         <v>101</v>
       </c>
       <c r="K50" t="s">
@@ -5073,7 +4983,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K52" s="191" t="s">
+      <c r="K52" s="166" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5106,2149 +5016,2149 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.09765625" customWidth="1"/>
-    <col min="3" max="14" width="4.3984375" style="131" customWidth="1"/>
-    <col min="15" max="15" width="7.296875" style="131" customWidth="1"/>
+    <col min="3" max="14" width="4.3984375" style="106" customWidth="1"/>
+    <col min="15" max="15" width="7.296875" style="106" customWidth="1"/>
     <col min="21" max="21" width="49.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="F1" s="132"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:34" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A2" s="133">
+      <c r="A2" s="108">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="192">
+      <c r="T2" s="167">
         <v>1</v>
       </c>
-      <c r="U2" s="133" t="s">
+      <c r="U2" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
-      <c r="AH2" s="131"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T3" s="193"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
+      <c r="T3" s="168"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T4" s="193"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
+      <c r="T4" s="168"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="136" t="s">
+      <c r="I5" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="136" t="s">
+      <c r="J5" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="136" t="s">
+      <c r="K5" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="136" t="s">
+      <c r="L5" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="136" t="s">
+      <c r="M5" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="136" t="s">
+      <c r="N5" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="137"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="127" t="s">
+      <c r="O5" s="112"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="V5" s="136" t="s">
+      <c r="V5" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W5" s="136" t="s">
+      <c r="W5" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X5" s="136" t="s">
+      <c r="X5" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="136" t="s">
+      <c r="Y5" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z5" s="136" t="s">
+      <c r="Z5" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA5" s="136" t="s">
+      <c r="AA5" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB5" s="136" t="s">
+      <c r="AB5" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC5" s="136" t="s">
+      <c r="AC5" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="136" t="s">
+      <c r="AD5" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE5" s="136" t="s">
+      <c r="AE5" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF5" s="136" t="s">
+      <c r="AF5" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG5" s="136" t="s">
+      <c r="AG5" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH5" s="137"/>
+      <c r="AH5" s="112"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C6" s="131">
+      <c r="C6" s="106">
         <v>100</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="106">
         <v>60</v>
       </c>
-      <c r="E6" s="131">
+      <c r="E6" s="106">
         <v>70</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="106">
         <v>100</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="106">
         <v>98</v>
       </c>
-      <c r="T6" s="193"/>
-      <c r="V6" s="131">
+      <c r="T6" s="168"/>
+      <c r="V6" s="106">
         <v>10</v>
       </c>
-      <c r="W6" s="131">
+      <c r="W6" s="106">
         <v>-5</v>
       </c>
-      <c r="X6" s="131">
+      <c r="X6" s="106">
         <v>15</v>
       </c>
-      <c r="Y6" s="131">
+      <c r="Y6" s="106">
         <v>2</v>
       </c>
-      <c r="Z6" s="131">
+      <c r="Z6" s="106">
         <v>-4</v>
       </c>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T7" s="193"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="131"/>
+      <c r="T7" s="168"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="136" t="s">
+      <c r="K8" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="136" t="s">
+      <c r="L8" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M8" s="136" t="s">
+      <c r="M8" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="136" t="s">
+      <c r="N8" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O8" s="136" t="s">
+      <c r="O8" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="T8" s="193"/>
-      <c r="U8" s="127" t="s">
+      <c r="T8" s="168"/>
+      <c r="U8" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="V8" s="136" t="s">
+      <c r="V8" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W8" s="136" t="s">
+      <c r="W8" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X8" s="136" t="s">
+      <c r="X8" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y8" s="136" t="s">
+      <c r="Y8" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z8" s="136" t="s">
+      <c r="Z8" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA8" s="136" t="s">
+      <c r="AA8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB8" s="136" t="s">
+      <c r="AB8" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC8" s="136" t="s">
+      <c r="AC8" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="136" t="s">
+      <c r="AD8" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE8" s="136" t="s">
+      <c r="AE8" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF8" s="136" t="s">
+      <c r="AF8" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG8" s="136" t="s">
+      <c r="AG8" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH8" s="136" t="s">
+      <c r="AH8" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C9" s="131">
+      <c r="C9" s="106">
         <v>100</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="106">
         <v>60</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="106">
         <v>70</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="106">
         <v>100</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="106">
         <v>98</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="109">
         <f>SUM($C$9:$G$9)/5</f>
         <v>85.6</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="109">
         <f t="shared" ref="I9:N9" si="0">SUM($C$9:$G$9)/5</f>
         <v>85.6</v>
       </c>
-      <c r="J9" s="134">
+      <c r="J9" s="109">
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-      <c r="K9" s="134">
+      <c r="K9" s="109">
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-      <c r="L9" s="134">
+      <c r="L9" s="109">
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-      <c r="M9" s="134">
+      <c r="M9" s="109">
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-      <c r="N9" s="134">
+      <c r="N9" s="109">
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-      <c r="O9" s="135">
+      <c r="O9" s="110">
         <f>SUM(C9:N9)</f>
         <v>1027.2</v>
       </c>
-      <c r="T9" s="193"/>
-      <c r="V9" s="131">
+      <c r="T9" s="168"/>
+      <c r="V9" s="106">
         <v>10</v>
       </c>
-      <c r="W9" s="131">
+      <c r="W9" s="106">
         <v>-5</v>
       </c>
-      <c r="X9" s="131">
+      <c r="X9" s="106">
         <v>15</v>
       </c>
-      <c r="Y9" s="131">
+      <c r="Y9" s="106">
         <v>2</v>
       </c>
-      <c r="Z9" s="131">
+      <c r="Z9" s="106">
         <v>-4</v>
       </c>
-      <c r="AA9" s="134">
+      <c r="AA9" s="109">
         <f>SUM($V$9:$Z$9)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AB9" s="134">
+      <c r="AB9" s="109">
         <f t="shared" ref="AB9:AG9" si="1">SUM($V$9:$Z$9)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AC9" s="134">
+      <c r="AC9" s="109">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="AD9" s="134">
+      <c r="AD9" s="109">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="AE9" s="134">
+      <c r="AE9" s="109">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="AF9" s="134">
+      <c r="AF9" s="109">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="AG9" s="134">
+      <c r="AG9" s="109">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="AH9" s="135">
+      <c r="AH9" s="110">
         <f>SUM(V9:AG9)</f>
         <v>43.20000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T10" s="193"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
+      <c r="T10" s="168"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="136" t="s">
+      <c r="H11" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="136" t="s">
+      <c r="I11" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="136" t="s">
+      <c r="J11" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="136" t="s">
+      <c r="K11" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="136" t="s">
+      <c r="L11" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M11" s="136" t="s">
+      <c r="M11" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N11" s="136" t="s">
+      <c r="N11" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O11" s="136" t="s">
+      <c r="O11" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="T11" s="193"/>
-      <c r="U11" s="127" t="s">
+      <c r="T11" s="168"/>
+      <c r="U11" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="V11" s="136" t="s">
+      <c r="V11" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W11" s="136" t="s">
+      <c r="W11" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X11" s="136" t="s">
+      <c r="X11" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y11" s="136" t="s">
+      <c r="Y11" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="136" t="s">
+      <c r="Z11" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA11" s="136" t="s">
+      <c r="AA11" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB11" s="136" t="s">
+      <c r="AB11" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC11" s="136" t="s">
+      <c r="AC11" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD11" s="136" t="s">
+      <c r="AD11" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE11" s="136" t="s">
+      <c r="AE11" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF11" s="136" t="s">
+      <c r="AF11" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG11" s="136" t="s">
+      <c r="AG11" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH11" s="136" t="s">
+      <c r="AH11" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C12" s="131">
+      <c r="C12" s="106">
         <v>100</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="106">
         <v>60</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="106">
         <v>70</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="106">
         <v>100</v>
       </c>
-      <c r="G12" s="131">
+      <c r="G12" s="106">
         <v>98</v>
       </c>
-      <c r="H12" s="131">
+      <c r="H12" s="106">
         <v>85.6</v>
       </c>
-      <c r="I12" s="131">
+      <c r="I12" s="106">
         <v>85.6</v>
       </c>
-      <c r="J12" s="131">
+      <c r="J12" s="106">
         <v>85.6</v>
       </c>
-      <c r="K12" s="134">
+      <c r="K12" s="109">
         <f>K9*(1+10%)</f>
         <v>94.16</v>
       </c>
-      <c r="L12" s="134">
+      <c r="L12" s="109">
         <f t="shared" ref="L12:N12" si="2">L9*(1+10%)</f>
         <v>94.16</v>
       </c>
-      <c r="M12" s="134">
+      <c r="M12" s="109">
         <f t="shared" si="2"/>
         <v>94.16</v>
       </c>
-      <c r="N12" s="134">
+      <c r="N12" s="109">
         <f t="shared" si="2"/>
         <v>94.16</v>
       </c>
-      <c r="O12" s="135">
+      <c r="O12" s="110">
         <f>SUM(C12:N12)</f>
         <v>1061.44</v>
       </c>
-      <c r="T12" s="193"/>
-      <c r="V12" s="131">
+      <c r="T12" s="168"/>
+      <c r="V12" s="106">
         <v>10</v>
       </c>
-      <c r="W12" s="131">
+      <c r="W12" s="106">
         <v>-5</v>
       </c>
-      <c r="X12" s="131">
+      <c r="X12" s="106">
         <v>15</v>
       </c>
-      <c r="Y12" s="131">
+      <c r="Y12" s="106">
         <v>2</v>
       </c>
-      <c r="Z12" s="131">
+      <c r="Z12" s="106">
         <v>-4</v>
       </c>
-      <c r="AA12" s="131">
+      <c r="AA12" s="106">
         <f>AA9</f>
         <v>3.6</v>
       </c>
-      <c r="AB12" s="131">
+      <c r="AB12" s="106">
         <f>AB9</f>
         <v>3.6</v>
       </c>
-      <c r="AC12" s="131">
+      <c r="AC12" s="106">
         <f>AC9</f>
         <v>3.6</v>
       </c>
-      <c r="AD12" s="134">
+      <c r="AD12" s="109">
         <f>AD9*(1+10%)</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AE12" s="134">
+      <c r="AE12" s="109">
         <f t="shared" ref="AE12:AG12" si="3">AE9*(1+10%)</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AF12" s="134">
+      <c r="AF12" s="109">
         <f t="shared" si="3"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AG12" s="134">
+      <c r="AG12" s="109">
         <f t="shared" si="3"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AH12" s="135">
+      <c r="AH12" s="110">
         <f>SUM(V12:AG12)</f>
         <v>44.640000000000008</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T13" s="193"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
+      <c r="T13" s="168"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="T14" s="193"/>
-      <c r="V14" s="130" t="s">
+      <c r="T14" s="168"/>
+      <c r="V14" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T15" s="193"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
+      <c r="T15" s="168"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T16" s="193"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
+      <c r="T16" s="168"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
     </row>
     <row r="17" spans="1:34" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A17" s="133">
+      <c r="A17" s="108">
         <v>2</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="T17" s="192">
+      <c r="T17" s="167">
         <v>2</v>
       </c>
-      <c r="U17" s="133" t="s">
+      <c r="U17" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T18" s="193"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
+      <c r="T18" s="168"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="136" t="s">
+      <c r="E19" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="136" t="s">
+      <c r="F19" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="136" t="s">
+      <c r="G19" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="136" t="s">
+      <c r="H19" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="136" t="s">
+      <c r="I19" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="136" t="s">
+      <c r="J19" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="136" t="s">
+      <c r="K19" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="136" t="s">
+      <c r="L19" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="136" t="s">
+      <c r="M19" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="136" t="s">
+      <c r="N19" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="137"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="127" t="s">
+      <c r="O19" s="112"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="V19" s="136" t="s">
+      <c r="V19" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W19" s="136" t="s">
+      <c r="W19" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="136" t="s">
+      <c r="X19" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y19" s="136" t="s">
+      <c r="Y19" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z19" s="136" t="s">
+      <c r="Z19" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA19" s="136" t="s">
+      <c r="AA19" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB19" s="136" t="s">
+      <c r="AB19" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC19" s="136" t="s">
+      <c r="AC19" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD19" s="136" t="s">
+      <c r="AD19" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE19" s="136" t="s">
+      <c r="AE19" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF19" s="136" t="s">
+      <c r="AF19" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG19" s="136" t="s">
+      <c r="AG19" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH19" s="137"/>
+      <c r="AH19" s="112"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C20" s="131">
+      <c r="C20" s="106">
         <v>100</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="106">
         <v>60</v>
       </c>
-      <c r="E20" s="131">
+      <c r="E20" s="106">
         <v>70</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="106">
         <v>100</v>
       </c>
-      <c r="G20" s="131">
+      <c r="G20" s="106">
         <v>98</v>
       </c>
-      <c r="T20" s="193"/>
-      <c r="V20" s="131">
+      <c r="T20" s="168"/>
+      <c r="V20" s="106">
         <v>10</v>
       </c>
-      <c r="W20" s="131">
+      <c r="W20" s="106">
         <v>-5</v>
       </c>
-      <c r="X20" s="131">
+      <c r="X20" s="106">
         <v>15</v>
       </c>
-      <c r="Y20" s="131">
+      <c r="Y20" s="106">
         <v>2</v>
       </c>
-      <c r="Z20" s="131">
+      <c r="Z20" s="106">
         <v>-4</v>
       </c>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T21" s="193"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
+      <c r="T21" s="168"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="136" t="s">
+      <c r="I22" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="136" t="s">
+      <c r="J22" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="136" t="s">
+      <c r="K22" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="136" t="s">
+      <c r="L22" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="136" t="s">
+      <c r="M22" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N22" s="136" t="s">
+      <c r="N22" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O22" s="136" t="s">
+      <c r="O22" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="T22" s="193"/>
-      <c r="U22" s="127" t="s">
+      <c r="T22" s="168"/>
+      <c r="U22" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="V22" s="136" t="s">
+      <c r="V22" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W22" s="136" t="s">
+      <c r="W22" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X22" s="136" t="s">
+      <c r="X22" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y22" s="136" t="s">
+      <c r="Y22" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z22" s="136" t="s">
+      <c r="Z22" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA22" s="136" t="s">
+      <c r="AA22" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB22" s="136" t="s">
+      <c r="AB22" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC22" s="136" t="s">
+      <c r="AC22" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD22" s="136" t="s">
+      <c r="AD22" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE22" s="136" t="s">
+      <c r="AE22" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF22" s="136" t="s">
+      <c r="AF22" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG22" s="136" t="s">
+      <c r="AG22" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH22" s="136" t="s">
+      <c r="AH22" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C23" s="131">
+      <c r="C23" s="106">
         <v>100</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="106">
         <v>60</v>
       </c>
-      <c r="E23" s="131">
+      <c r="E23" s="106">
         <v>70</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="106">
         <v>100</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G23" s="106">
         <v>98</v>
       </c>
-      <c r="H23" s="134">
+      <c r="H23" s="109">
         <f>SUM($C$9:$G$9)/5</f>
         <v>85.6</v>
       </c>
-      <c r="I23" s="134">
+      <c r="I23" s="109">
         <f t="shared" ref="I23:N23" si="4">SUM($C$9:$G$9)/5</f>
         <v>85.6</v>
       </c>
-      <c r="J23" s="134">
+      <c r="J23" s="109">
         <f t="shared" si="4"/>
         <v>85.6</v>
       </c>
-      <c r="K23" s="134">
+      <c r="K23" s="109">
         <f t="shared" si="4"/>
         <v>85.6</v>
       </c>
-      <c r="L23" s="134">
+      <c r="L23" s="109">
         <f t="shared" si="4"/>
         <v>85.6</v>
       </c>
-      <c r="M23" s="134">
+      <c r="M23" s="109">
         <f t="shared" si="4"/>
         <v>85.6</v>
       </c>
-      <c r="N23" s="134">
+      <c r="N23" s="109">
         <f t="shared" si="4"/>
         <v>85.6</v>
       </c>
-      <c r="O23" s="135">
+      <c r="O23" s="110">
         <f>SUM(C23:N23)</f>
         <v>1027.2</v>
       </c>
-      <c r="T23" s="193"/>
-      <c r="V23" s="131">
+      <c r="T23" s="168"/>
+      <c r="V23" s="106">
         <v>10</v>
       </c>
-      <c r="W23" s="131">
+      <c r="W23" s="106">
         <v>-5</v>
       </c>
-      <c r="X23" s="131">
+      <c r="X23" s="106">
         <v>15</v>
       </c>
-      <c r="Y23" s="131">
+      <c r="Y23" s="106">
         <v>2</v>
       </c>
-      <c r="Z23" s="131">
+      <c r="Z23" s="106">
         <v>-4</v>
       </c>
-      <c r="AA23" s="134">
+      <c r="AA23" s="109">
         <f>SUM($V$23:$Z$23)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AB23" s="134">
+      <c r="AB23" s="109">
         <f t="shared" ref="AB23:AG23" si="5">SUM($V$23:$Z$23)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AC23" s="134">
+      <c r="AC23" s="109">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="AD23" s="134">
+      <c r="AD23" s="109">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="AE23" s="134">
+      <c r="AE23" s="109">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="AF23" s="134">
+      <c r="AF23" s="109">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="AG23" s="134">
+      <c r="AG23" s="109">
         <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="AH23" s="135">
+      <c r="AH23" s="110">
         <f>SUM(V23:AG23)</f>
         <v>43.20000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T24" s="193"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
+      <c r="T24" s="168"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="136" t="s">
+      <c r="F25" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="136" t="s">
+      <c r="G25" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="136" t="s">
+      <c r="H25" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="136" t="s">
+      <c r="I25" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="136" t="s">
+      <c r="J25" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="136" t="s">
+      <c r="K25" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="136" t="s">
+      <c r="L25" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M25" s="136" t="s">
+      <c r="M25" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N25" s="136" t="s">
+      <c r="N25" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O25" s="136" t="s">
+      <c r="O25" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="T25" s="193"/>
-      <c r="U25" s="127" t="s">
+      <c r="T25" s="168"/>
+      <c r="U25" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="V25" s="136" t="s">
+      <c r="V25" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W25" s="136" t="s">
+      <c r="W25" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X25" s="136" t="s">
+      <c r="X25" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y25" s="136" t="s">
+      <c r="Y25" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z25" s="136" t="s">
+      <c r="Z25" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA25" s="136" t="s">
+      <c r="AA25" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB25" s="136" t="s">
+      <c r="AB25" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC25" s="136" t="s">
+      <c r="AC25" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD25" s="136" t="s">
+      <c r="AD25" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE25" s="136" t="s">
+      <c r="AE25" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF25" s="136" t="s">
+      <c r="AF25" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG25" s="136" t="s">
+      <c r="AG25" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH25" s="136" t="s">
+      <c r="AH25" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C26" s="131">
+      <c r="C26" s="106">
         <v>100</v>
       </c>
-      <c r="D26" s="131">
+      <c r="D26" s="106">
         <v>60</v>
       </c>
-      <c r="E26" s="131">
+      <c r="E26" s="106">
         <v>70</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="106">
         <v>100</v>
       </c>
-      <c r="G26" s="131">
+      <c r="G26" s="106">
         <v>98</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="106">
         <v>85.6</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="106">
         <v>85.6</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="106">
         <v>85.6</v>
       </c>
-      <c r="K26" s="134">
+      <c r="K26" s="109">
         <f>K23*(1+6%)</f>
         <v>90.736000000000004</v>
       </c>
-      <c r="L26" s="134">
+      <c r="L26" s="109">
         <f t="shared" ref="L26:N26" si="6">L23*(1+6%)</f>
         <v>90.736000000000004</v>
       </c>
-      <c r="M26" s="134">
+      <c r="M26" s="109">
         <f t="shared" si="6"/>
         <v>90.736000000000004</v>
       </c>
-      <c r="N26" s="134">
+      <c r="N26" s="109">
         <f t="shared" si="6"/>
         <v>90.736000000000004</v>
       </c>
-      <c r="O26" s="135">
+      <c r="O26" s="110">
         <f>SUM(C26:N26)</f>
         <v>1047.7440000000001</v>
       </c>
-      <c r="T26" s="193"/>
-      <c r="V26" s="131">
+      <c r="T26" s="168"/>
+      <c r="V26" s="106">
         <v>10</v>
       </c>
-      <c r="W26" s="131">
+      <c r="W26" s="106">
         <v>-5</v>
       </c>
-      <c r="X26" s="131">
+      <c r="X26" s="106">
         <v>15</v>
       </c>
-      <c r="Y26" s="131">
+      <c r="Y26" s="106">
         <v>2</v>
       </c>
-      <c r="Z26" s="131">
+      <c r="Z26" s="106">
         <v>-4</v>
       </c>
-      <c r="AA26" s="131">
+      <c r="AA26" s="106">
         <f>AA23</f>
         <v>3.6</v>
       </c>
-      <c r="AB26" s="131">
+      <c r="AB26" s="106">
         <f>AB23</f>
         <v>3.6</v>
       </c>
-      <c r="AC26" s="131">
+      <c r="AC26" s="106">
         <f>AC23</f>
         <v>3.6</v>
       </c>
-      <c r="AD26" s="134">
+      <c r="AD26" s="109">
         <f>AD23*(1+6%)</f>
         <v>3.8160000000000003</v>
       </c>
-      <c r="AE26" s="134">
+      <c r="AE26" s="109">
         <f t="shared" ref="AE26:AG26" si="7">AE23*(1+6%)</f>
         <v>3.8160000000000003</v>
       </c>
-      <c r="AF26" s="134">
+      <c r="AF26" s="109">
         <f t="shared" si="7"/>
         <v>3.8160000000000003</v>
       </c>
-      <c r="AG26" s="134">
+      <c r="AG26" s="109">
         <f t="shared" si="7"/>
         <v>3.8160000000000003</v>
       </c>
-      <c r="AH26" s="135">
+      <c r="AH26" s="110">
         <f>SUM(V26:AG26)</f>
         <v>44.064000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T27" s="193"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
+      <c r="T27" s="168"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="T28" s="193"/>
-      <c r="V28" s="130" t="s">
+      <c r="T28" s="168"/>
+      <c r="V28" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="131"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T29" s="193"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="131"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
+      <c r="T29" s="168"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T30" s="193"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
+      <c r="T30" s="168"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
     </row>
     <row r="31" spans="1:34" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A31" s="133">
+      <c r="A31" s="108">
         <v>3</v>
       </c>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="T31" s="192">
+      <c r="T31" s="167">
         <v>3</v>
       </c>
-      <c r="U31" s="133" t="s">
+      <c r="U31" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="T32" s="193"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
+      <c r="T32" s="168"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="106"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="106"/>
+      <c r="AD32" s="106"/>
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="136" t="s">
+      <c r="D33" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="136" t="s">
+      <c r="E33" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F33" s="136" t="s">
+      <c r="F33" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="136" t="s">
+      <c r="G33" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="136" t="s">
+      <c r="I33" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J33" s="136" t="s">
+      <c r="J33" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="136" t="s">
+      <c r="K33" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="136" t="s">
+      <c r="L33" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M33" s="136" t="s">
+      <c r="M33" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N33" s="136" t="s">
+      <c r="N33" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O33" s="137"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="127" t="s">
+      <c r="O33" s="112"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="V33" s="136" t="s">
+      <c r="V33" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W33" s="136" t="s">
+      <c r="W33" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X33" s="136" t="s">
+      <c r="X33" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y33" s="136" t="s">
+      <c r="Y33" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z33" s="136" t="s">
+      <c r="Z33" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA33" s="136" t="s">
+      <c r="AA33" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB33" s="136" t="s">
+      <c r="AB33" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC33" s="136" t="s">
+      <c r="AC33" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD33" s="136" t="s">
+      <c r="AD33" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE33" s="136" t="s">
+      <c r="AE33" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF33" s="136" t="s">
+      <c r="AF33" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG33" s="136" t="s">
+      <c r="AG33" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH33" s="137"/>
+      <c r="AH33" s="112"/>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C34" s="131">
+      <c r="C34" s="106">
         <v>100</v>
       </c>
-      <c r="D34" s="131">
+      <c r="D34" s="106">
         <v>60</v>
       </c>
-      <c r="E34" s="131">
+      <c r="E34" s="106">
         <v>70</v>
       </c>
-      <c r="F34" s="131">
+      <c r="F34" s="106">
         <v>100</v>
       </c>
-      <c r="G34" s="131">
+      <c r="G34" s="106">
         <v>98</v>
       </c>
-      <c r="T34" s="193"/>
-      <c r="V34" s="131">
+      <c r="T34" s="168"/>
+      <c r="V34" s="106">
         <v>10</v>
       </c>
-      <c r="W34" s="131">
+      <c r="W34" s="106">
         <v>-5</v>
       </c>
-      <c r="X34" s="131">
+      <c r="X34" s="106">
         <v>15</v>
       </c>
-      <c r="Y34" s="131">
+      <c r="Y34" s="106">
         <v>2</v>
       </c>
-      <c r="Z34" s="131">
+      <c r="Z34" s="106">
         <v>-4</v>
       </c>
-      <c r="AA34" s="131"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="131"/>
-      <c r="AD34" s="131"/>
-      <c r="AE34" s="131"/>
-      <c r="AF34" s="131"/>
-      <c r="AG34" s="131"/>
-      <c r="AH34" s="131"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="106"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="T35" s="193"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="131"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="131"/>
-      <c r="AA35" s="131"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="131"/>
-      <c r="AD35" s="131"/>
-      <c r="AE35" s="131"/>
-      <c r="AF35" s="131"/>
-      <c r="AG35" s="131"/>
-      <c r="AH35" s="131"/>
+      <c r="T35" s="168"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="136" t="s">
+      <c r="C36" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="136" t="s">
+      <c r="D36" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="136" t="s">
+      <c r="E36" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="136" t="s">
+      <c r="F36" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="136" t="s">
+      <c r="G36" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H36" s="136" t="s">
+      <c r="H36" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="136" t="s">
+      <c r="I36" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J36" s="136" t="s">
+      <c r="J36" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K36" s="136" t="s">
+      <c r="K36" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="136" t="s">
+      <c r="L36" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M36" s="136" t="s">
+      <c r="M36" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N36" s="136" t="s">
+      <c r="N36" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O36" s="136" t="s">
+      <c r="O36" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="T36" s="193"/>
-      <c r="U36" s="127" t="s">
+      <c r="T36" s="168"/>
+      <c r="U36" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="V36" s="136" t="s">
+      <c r="V36" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W36" s="136" t="s">
+      <c r="W36" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X36" s="136" t="s">
+      <c r="X36" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y36" s="136" t="s">
+      <c r="Y36" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z36" s="136" t="s">
+      <c r="Z36" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA36" s="136" t="s">
+      <c r="AA36" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB36" s="136" t="s">
+      <c r="AB36" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC36" s="136" t="s">
+      <c r="AC36" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD36" s="136" t="s">
+      <c r="AD36" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE36" s="136" t="s">
+      <c r="AE36" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF36" s="136" t="s">
+      <c r="AF36" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG36" s="136" t="s">
+      <c r="AG36" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH36" s="136" t="s">
+      <c r="AH36" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C37" s="131">
+      <c r="C37" s="106">
         <v>100</v>
       </c>
-      <c r="D37" s="131">
+      <c r="D37" s="106">
         <v>60</v>
       </c>
-      <c r="E37" s="131">
+      <c r="E37" s="106">
         <v>70</v>
       </c>
-      <c r="F37" s="131">
+      <c r="F37" s="106">
         <v>100</v>
       </c>
-      <c r="G37" s="131">
+      <c r="G37" s="106">
         <v>98</v>
       </c>
-      <c r="H37" s="134">
+      <c r="H37" s="109">
         <f>SUM($C$9:$G$9)/5</f>
         <v>85.6</v>
       </c>
-      <c r="I37" s="134">
+      <c r="I37" s="109">
         <f t="shared" ref="I37:N37" si="8">SUM($C$9:$G$9)/5</f>
         <v>85.6</v>
       </c>
-      <c r="J37" s="134">
+      <c r="J37" s="109">
         <f t="shared" si="8"/>
         <v>85.6</v>
       </c>
-      <c r="K37" s="134">
+      <c r="K37" s="109">
         <f t="shared" si="8"/>
         <v>85.6</v>
       </c>
-      <c r="L37" s="134">
+      <c r="L37" s="109">
         <f t="shared" si="8"/>
         <v>85.6</v>
       </c>
-      <c r="M37" s="134">
+      <c r="M37" s="109">
         <f t="shared" si="8"/>
         <v>85.6</v>
       </c>
-      <c r="N37" s="134">
+      <c r="N37" s="109">
         <f t="shared" si="8"/>
         <v>85.6</v>
       </c>
-      <c r="O37" s="135">
+      <c r="O37" s="110">
         <f>SUM(C37:N37)</f>
         <v>1027.2</v>
       </c>
-      <c r="T37" s="193"/>
-      <c r="V37" s="131">
+      <c r="T37" s="168"/>
+      <c r="V37" s="106">
         <v>10</v>
       </c>
-      <c r="W37" s="131">
+      <c r="W37" s="106">
         <v>-5</v>
       </c>
-      <c r="X37" s="131">
+      <c r="X37" s="106">
         <v>15</v>
       </c>
-      <c r="Y37" s="131">
+      <c r="Y37" s="106">
         <v>2</v>
       </c>
-      <c r="Z37" s="131">
+      <c r="Z37" s="106">
         <v>-4</v>
       </c>
-      <c r="AA37" s="134">
+      <c r="AA37" s="109">
         <f>SUM($V$34:$Z$34)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AB37" s="134">
+      <c r="AB37" s="109">
         <f t="shared" ref="AB37:AG37" si="9">SUM($V$34:$Z$34)/5</f>
         <v>3.6</v>
       </c>
-      <c r="AC37" s="134">
+      <c r="AC37" s="109">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AD37" s="134">
+      <c r="AD37" s="109">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AE37" s="134">
+      <c r="AE37" s="109">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AF37" s="134">
+      <c r="AF37" s="109">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AG37" s="134">
+      <c r="AG37" s="109">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="AH37" s="135">
+      <c r="AH37" s="110">
         <f>SUM(V37:AG37)</f>
         <v>43.20000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="T38" s="193"/>
-      <c r="V38" s="131"/>
-      <c r="W38" s="131"/>
-      <c r="X38" s="131"/>
-      <c r="Y38" s="131"/>
-      <c r="Z38" s="131"/>
-      <c r="AA38" s="131"/>
-      <c r="AB38" s="131"/>
-      <c r="AC38" s="131"/>
-      <c r="AD38" s="131"/>
-      <c r="AE38" s="131"/>
-      <c r="AF38" s="131"/>
-      <c r="AG38" s="131"/>
-      <c r="AH38" s="131"/>
+      <c r="T38" s="168"/>
+      <c r="V38" s="106"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="106"/>
+      <c r="Y38" s="106"/>
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="106"/>
+      <c r="AH38" s="106"/>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="136" t="s">
+      <c r="C39" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="136" t="s">
+      <c r="D39" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="136" t="s">
+      <c r="E39" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="136" t="s">
+      <c r="F39" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="136" t="s">
+      <c r="G39" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H39" s="136" t="s">
+      <c r="H39" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I39" s="136" t="s">
+      <c r="I39" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J39" s="136" t="s">
+      <c r="J39" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="136" t="s">
+      <c r="K39" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L39" s="136" t="s">
+      <c r="L39" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M39" s="136" t="s">
+      <c r="M39" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N39" s="136" t="s">
+      <c r="N39" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O39" s="136" t="s">
+      <c r="O39" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="T39" s="193"/>
-      <c r="U39" s="127" t="s">
+      <c r="T39" s="168"/>
+      <c r="U39" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="V39" s="136" t="s">
+      <c r="V39" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W39" s="136" t="s">
+      <c r="W39" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X39" s="136" t="s">
+      <c r="X39" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y39" s="136" t="s">
+      <c r="Y39" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z39" s="136" t="s">
+      <c r="Z39" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA39" s="136" t="s">
+      <c r="AA39" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB39" s="136" t="s">
+      <c r="AB39" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC39" s="136" t="s">
+      <c r="AC39" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD39" s="136" t="s">
+      <c r="AD39" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE39" s="136" t="s">
+      <c r="AE39" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF39" s="136" t="s">
+      <c r="AF39" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG39" s="136" t="s">
+      <c r="AG39" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH39" s="136" t="s">
+      <c r="AH39" s="111" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C40" s="131">
+      <c r="C40" s="106">
         <v>100</v>
       </c>
-      <c r="D40" s="131">
+      <c r="D40" s="106">
         <v>60</v>
       </c>
-      <c r="E40" s="131">
+      <c r="E40" s="106">
         <v>70</v>
       </c>
-      <c r="F40" s="131">
+      <c r="F40" s="106">
         <v>100</v>
       </c>
-      <c r="G40" s="131">
+      <c r="G40" s="106">
         <v>98</v>
       </c>
-      <c r="H40" s="131">
+      <c r="H40" s="106">
         <v>85.6</v>
       </c>
-      <c r="I40" s="134">
+      <c r="I40" s="109">
         <f t="shared" ref="I40:J40" si="10">I37*(1+10%)</f>
         <v>94.16</v>
       </c>
-      <c r="J40" s="134">
+      <c r="J40" s="109">
         <f t="shared" si="10"/>
         <v>94.16</v>
       </c>
-      <c r="K40" s="134">
+      <c r="K40" s="109">
         <f>K37*(1+10%)</f>
         <v>94.16</v>
       </c>
-      <c r="L40" s="134">
+      <c r="L40" s="109">
         <f t="shared" ref="L40:N40" si="11">L37*(1+10%)</f>
         <v>94.16</v>
       </c>
-      <c r="M40" s="134">
+      <c r="M40" s="109">
         <f t="shared" si="11"/>
         <v>94.16</v>
       </c>
-      <c r="N40" s="134">
+      <c r="N40" s="109">
         <f t="shared" si="11"/>
         <v>94.16</v>
       </c>
-      <c r="O40" s="135">
+      <c r="O40" s="110">
         <f>SUM(C40:N40)</f>
         <v>1078.56</v>
       </c>
-      <c r="T40" s="193"/>
-      <c r="V40" s="131">
+      <c r="T40" s="168"/>
+      <c r="V40" s="106">
         <f>V37</f>
         <v>10</v>
       </c>
-      <c r="W40" s="131">
+      <c r="W40" s="106">
         <f t="shared" ref="W40:AA40" si="12">W37</f>
         <v>-5</v>
       </c>
-      <c r="X40" s="131">
+      <c r="X40" s="106">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="Y40" s="131">
+      <c r="Y40" s="106">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z40" s="131">
+      <c r="Z40" s="106">
         <f t="shared" si="12"/>
         <v>-4</v>
       </c>
-      <c r="AA40" s="131">
+      <c r="AA40" s="106">
         <f t="shared" si="12"/>
         <v>3.6</v>
       </c>
-      <c r="AB40" s="134">
+      <c r="AB40" s="109">
         <f>AB37*(1+10%)</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AC40" s="134">
+      <c r="AC40" s="109">
         <f t="shared" ref="AC40" si="13">AC37*(1+10%)</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AD40" s="134">
+      <c r="AD40" s="109">
         <f>AD37*(1+10%)</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AE40" s="134">
+      <c r="AE40" s="109">
         <f t="shared" ref="AE40:AG40" si="14">AE37*(1+10%)</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AF40" s="134">
+      <c r="AF40" s="109">
         <f t="shared" si="14"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AG40" s="134">
+      <c r="AG40" s="109">
         <f t="shared" si="14"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AH40" s="135">
+      <c r="AH40" s="110">
         <f>SUM(V40:AG40)</f>
         <v>45.360000000000007</v>
       </c>
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="T41" s="193"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="131"/>
-      <c r="X41" s="131"/>
-      <c r="Y41" s="131"/>
-      <c r="Z41" s="131"/>
-      <c r="AA41" s="131"/>
-      <c r="AB41" s="131"/>
-      <c r="AC41" s="131"/>
-      <c r="AD41" s="131"/>
-      <c r="AE41" s="131"/>
-      <c r="AF41" s="131"/>
-      <c r="AG41" s="131"/>
-      <c r="AH41" s="131"/>
+      <c r="T41" s="168"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="106"/>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="106"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="106"/>
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="106"/>
+      <c r="AH41" s="106"/>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C42" s="130" t="s">
+      <c r="C42" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="T42" s="193"/>
-      <c r="V42" s="130" t="s">
+      <c r="T42" s="168"/>
+      <c r="V42" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="W42" s="131"/>
-      <c r="X42" s="131"/>
-      <c r="Y42" s="131"/>
-      <c r="Z42" s="131"/>
-      <c r="AA42" s="131"/>
-      <c r="AB42" s="131"/>
-      <c r="AC42" s="131"/>
-      <c r="AD42" s="131"/>
-      <c r="AE42" s="131"/>
-      <c r="AF42" s="131"/>
-      <c r="AG42" s="131"/>
-      <c r="AH42" s="131"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="106"/>
+      <c r="AE42" s="106"/>
+      <c r="AF42" s="106"/>
+      <c r="AG42" s="106"/>
+      <c r="AH42" s="106"/>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="T43" s="193"/>
-      <c r="V43" s="131"/>
-      <c r="W43" s="131"/>
-      <c r="X43" s="131"/>
-      <c r="Y43" s="131"/>
-      <c r="Z43" s="131"/>
-      <c r="AA43" s="131"/>
-      <c r="AB43" s="131"/>
-      <c r="AC43" s="131"/>
-      <c r="AD43" s="131"/>
-      <c r="AE43" s="131"/>
-      <c r="AF43" s="131"/>
-      <c r="AG43" s="131"/>
-      <c r="AH43" s="131"/>
+      <c r="T43" s="168"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="106"/>
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="106"/>
+      <c r="AF43" s="106"/>
+      <c r="AG43" s="106"/>
+      <c r="AH43" s="106"/>
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="136" t="s">
+      <c r="D44" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="136" t="s">
+      <c r="E44" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="136" t="s">
+      <c r="F44" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="136" t="s">
+      <c r="G44" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="136" t="s">
+      <c r="H44" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I44" s="136" t="s">
+      <c r="I44" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="J44" s="136" t="s">
+      <c r="J44" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="136" t="s">
+      <c r="K44" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="L44" s="136" t="s">
+      <c r="L44" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="M44" s="136" t="s">
+      <c r="M44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="N44" s="136" t="s">
+      <c r="N44" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="O44" s="136" t="s">
+      <c r="O44" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="Q44" s="138" t="s">
+      <c r="Q44" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="T44" s="193"/>
-      <c r="U44" s="127" t="s">
+      <c r="T44" s="168"/>
+      <c r="U44" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="V44" s="136" t="s">
+      <c r="V44" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="W44" s="136" t="s">
+      <c r="W44" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="X44" s="136" t="s">
+      <c r="X44" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="Y44" s="136" t="s">
+      <c r="Y44" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="Z44" s="136" t="s">
+      <c r="Z44" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="AA44" s="136" t="s">
+      <c r="AA44" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AB44" s="136" t="s">
+      <c r="AB44" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="AC44" s="136" t="s">
+      <c r="AC44" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="AD44" s="136" t="s">
+      <c r="AD44" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="AE44" s="136" t="s">
+      <c r="AE44" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="AF44" s="136" t="s">
+      <c r="AF44" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="AG44" s="136" t="s">
+      <c r="AG44" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="AH44" s="136" t="s">
+      <c r="AH44" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="AJ44" s="138" t="s">
+      <c r="AJ44" s="113" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C45" s="131">
+      <c r="C45" s="106">
         <v>100</v>
       </c>
-      <c r="D45" s="131">
+      <c r="D45" s="106">
         <v>60</v>
       </c>
-      <c r="E45" s="131">
+      <c r="E45" s="106">
         <v>70</v>
       </c>
-      <c r="F45" s="131">
+      <c r="F45" s="106">
         <v>100</v>
       </c>
-      <c r="G45" s="131">
+      <c r="G45" s="106">
         <v>98</v>
       </c>
-      <c r="H45" s="131">
+      <c r="H45" s="106">
         <v>85.6</v>
       </c>
-      <c r="I45" s="131">
+      <c r="I45" s="106">
         <v>85.6</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="106">
         <v>85.6</v>
       </c>
-      <c r="K45" s="135">
+      <c r="K45" s="110">
         <f>K40*(1+6%)</f>
         <v>99.809600000000003</v>
       </c>
-      <c r="L45" s="134">
+      <c r="L45" s="109">
         <f t="shared" ref="L45:N45" si="15">L40*(1+6%)</f>
         <v>99.809600000000003</v>
       </c>
-      <c r="M45" s="134">
+      <c r="M45" s="109">
         <f t="shared" si="15"/>
         <v>99.809600000000003</v>
       </c>
-      <c r="N45" s="134">
+      <c r="N45" s="109">
         <f t="shared" si="15"/>
         <v>99.809600000000003</v>
       </c>
-      <c r="O45" s="135">
+      <c r="O45" s="110">
         <f>SUM(C45:N45)</f>
         <v>1084.0384000000001</v>
       </c>
-      <c r="T45" s="193"/>
-      <c r="V45" s="131">
+      <c r="T45" s="168"/>
+      <c r="V45" s="106">
         <f>V40</f>
         <v>10</v>
       </c>
-      <c r="W45" s="131">
+      <c r="W45" s="106">
         <f t="shared" ref="W45:AC45" si="16">W40</f>
         <v>-5</v>
       </c>
-      <c r="X45" s="131">
+      <c r="X45" s="106">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="Y45" s="131">
+      <c r="Y45" s="106">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="Z45" s="131">
+      <c r="Z45" s="106">
         <f t="shared" si="16"/>
         <v>-4</v>
       </c>
-      <c r="AA45" s="131">
+      <c r="AA45" s="106">
         <f t="shared" si="16"/>
         <v>3.6</v>
       </c>
-      <c r="AB45" s="131">
+      <c r="AB45" s="106">
         <f t="shared" si="16"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AC45" s="131">
+      <c r="AC45" s="106">
         <f t="shared" si="16"/>
         <v>3.9600000000000004</v>
       </c>
-      <c r="AD45" s="194">
+      <c r="AD45" s="169">
         <f>AD40*(1+6%)</f>
         <v>4.1976000000000004</v>
       </c>
-      <c r="AE45" s="194">
+      <c r="AE45" s="169">
         <f t="shared" ref="AE45:AG45" si="17">AE40*(1+6%)</f>
         <v>4.1976000000000004</v>
       </c>
-      <c r="AF45" s="194">
+      <c r="AF45" s="169">
         <f t="shared" si="17"/>
         <v>4.1976000000000004</v>
       </c>
-      <c r="AG45" s="194">
+      <c r="AG45" s="169">
         <f t="shared" si="17"/>
         <v>4.1976000000000004</v>
       </c>
-      <c r="AH45" s="135">
+      <c r="AH45" s="110">
         <f>SUM(V45:AG45)</f>
         <v>46.310400000000008</v>
       </c>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="T46" s="193"/>
-      <c r="V46" s="131"/>
-      <c r="W46" s="131"/>
-      <c r="X46" s="131"/>
-      <c r="Y46" s="131"/>
-      <c r="Z46" s="131"/>
-      <c r="AA46" s="131"/>
-      <c r="AB46" s="131"/>
-      <c r="AC46" s="131"/>
-      <c r="AD46" s="131"/>
-      <c r="AE46" s="131"/>
-      <c r="AF46" s="131"/>
-      <c r="AG46" s="131"/>
-      <c r="AH46" s="131"/>
+      <c r="T46" s="168"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="106"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="106"/>
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="106"/>
+      <c r="AF46" s="106"/>
+      <c r="AG46" s="106"/>
+      <c r="AH46" s="106"/>
     </row>
     <row r="47" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C47" s="130" t="s">
+      <c r="C47" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="T47" s="193"/>
-      <c r="V47" s="130"/>
-      <c r="W47" s="131"/>
-      <c r="X47" s="131"/>
-      <c r="Y47" s="131"/>
-      <c r="Z47" s="131"/>
-      <c r="AA47" s="131"/>
-      <c r="AB47" s="131"/>
-      <c r="AC47" s="131"/>
-      <c r="AD47" s="131"/>
-      <c r="AE47" s="131"/>
-      <c r="AF47" s="131"/>
-      <c r="AG47" s="131"/>
-      <c r="AH47" s="131"/>
+      <c r="T47" s="168"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="106"/>
+      <c r="AE47" s="106"/>
+      <c r="AF47" s="106"/>
+      <c r="AG47" s="106"/>
+      <c r="AH47" s="106"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K49" s="198"/>
+      <c r="K49" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7259,8 +7169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F0AC02-65E5-4172-91F9-700315163F39}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -8001,7 +7911,7 @@
       <c r="N42" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="O42" s="93" t="s">
+      <c r="O42" s="85" t="s">
         <v>161</v>
       </c>
     </row>
@@ -8048,7 +7958,7 @@
       <c r="N43" s="35">
         <v>0</v>
       </c>
-      <c r="O43" s="94">
+      <c r="O43" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8095,7 +8005,7 @@
       <c r="N44" s="35">
         <v>0</v>
       </c>
-      <c r="O44" s="94">
+      <c r="O44" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8142,7 +8052,7 @@
       <c r="N45" s="35">
         <v>0</v>
       </c>
-      <c r="O45" s="94">
+      <c r="O45" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8189,7 +8099,7 @@
       <c r="N46" s="35">
         <v>0</v>
       </c>
-      <c r="O46" s="94">
+      <c r="O46" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8236,7 +8146,7 @@
       <c r="N47" s="35">
         <v>0</v>
       </c>
-      <c r="O47" s="94">
+      <c r="O47" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8283,7 +8193,7 @@
       <c r="N48" s="35">
         <v>0</v>
       </c>
-      <c r="O48" s="94">
+      <c r="O48" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8330,7 +8240,7 @@
       <c r="N49" s="35">
         <v>0</v>
       </c>
-      <c r="O49" s="94">
+      <c r="O49" s="86">
         <v>0</v>
       </c>
     </row>
@@ -8377,7 +8287,7 @@
       <c r="N50" s="53">
         <v>112.42</v>
       </c>
-      <c r="O50" s="95">
+      <c r="O50" s="87">
         <v>0</v>
       </c>
     </row>
@@ -8424,7 +8334,7 @@
       <c r="N51" s="53">
         <v>118.4</v>
       </c>
-      <c r="O51" s="95">
+      <c r="O51" s="87">
         <v>0</v>
       </c>
     </row>
@@ -8471,7 +8381,7 @@
       <c r="N52" s="53">
         <v>3578.18</v>
       </c>
-      <c r="O52" s="95">
+      <c r="O52" s="87">
         <v>0</v>
       </c>
     </row>
@@ -8518,7 +8428,7 @@
       <c r="N53" s="53">
         <v>403423.32</v>
       </c>
-      <c r="O53" s="95">
+      <c r="O53" s="87">
         <v>0</v>
       </c>
     </row>
@@ -8541,7 +8451,7 @@
       <c r="N54" s="78">
         <v>407232.32</v>
       </c>
-      <c r="O54" s="96">
+      <c r="O54" s="88">
         <v>0</v>
       </c>
     </row>
@@ -9303,840 +9213,840 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5D1BA2-556B-4798-9024-6409DF85AA0D}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="116" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="116" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="116"/>
-    <col min="4" max="4" width="10.296875" style="116" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="116"/>
-    <col min="6" max="6" width="9.296875" style="116" customWidth="1"/>
-    <col min="7" max="7" width="6.69921875" style="116" customWidth="1"/>
-    <col min="8" max="9" width="8.69921875" style="116"/>
-    <col min="10" max="10" width="7.296875" style="116" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.3984375" style="116" customWidth="1"/>
-    <col min="12" max="12" width="8" style="116" customWidth="1"/>
-    <col min="13" max="13" width="8.296875" style="116" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" style="116" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" style="116" customWidth="1"/>
-    <col min="16" max="16" width="9.3984375" style="116" customWidth="1"/>
-    <col min="17" max="18" width="8.09765625" style="116" customWidth="1"/>
-    <col min="19" max="21" width="9.69921875" style="116" customWidth="1"/>
-    <col min="22" max="22" width="8.3984375" style="116" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" style="116" customWidth="1"/>
-    <col min="24" max="24" width="9.296875" style="116" customWidth="1"/>
-    <col min="25" max="25" width="10.3984375" style="116" customWidth="1"/>
-    <col min="26" max="16384" width="8.69921875" style="116"/>
+    <col min="1" max="1" width="10.3984375" style="91" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="91"/>
+    <col min="4" max="4" width="10.296875" style="91" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="91"/>
+    <col min="6" max="6" width="9.296875" style="91" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" style="91" customWidth="1"/>
+    <col min="8" max="9" width="8.69921875" style="91"/>
+    <col min="10" max="10" width="7.296875" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" style="91" customWidth="1"/>
+    <col min="12" max="12" width="8" style="91" customWidth="1"/>
+    <col min="13" max="13" width="8.296875" style="91" customWidth="1"/>
+    <col min="14" max="14" width="8.59765625" style="91" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.09765625" style="91" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" style="91" customWidth="1"/>
+    <col min="17" max="18" width="8.09765625" style="91" customWidth="1"/>
+    <col min="19" max="21" width="9.69921875" style="91" customWidth="1"/>
+    <col min="22" max="22" width="8.3984375" style="91" customWidth="1"/>
+    <col min="23" max="23" width="9.3984375" style="91" customWidth="1"/>
+    <col min="24" max="24" width="9.296875" style="91" customWidth="1"/>
+    <col min="25" max="25" width="10.3984375" style="91" customWidth="1"/>
+    <col min="26" max="16384" width="8.69921875" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="131" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:23" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="92" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="W6" s="117"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="W6" s="92"/>
     </row>
     <row r="7" spans="1:23" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="W7" s="117"/>
+      <c r="E7" s="92"/>
+      <c r="W7" s="92"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="W8" s="117"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="W8" s="92"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
     </row>
     <row r="10" spans="1:23" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
     </row>
     <row r="12" spans="1:23" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="121">
+      <c r="F12" s="96">
         <v>-0.16</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="137" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="98">
         <v>45536</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:23" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="196"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="196"/>
-      <c r="P16" s="197" t="s">
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-    </row>
-    <row r="17" spans="1:27" s="141" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="150" t="s">
+      <c r="Q16" s="173"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="173"/>
+    </row>
+    <row r="17" spans="1:27" s="116" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A17" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="139" t="s">
+      <c r="F17" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="142" t="s">
+      <c r="G17" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="144" t="s">
+      <c r="I17" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="142" t="s">
+      <c r="J17" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="143" t="s">
+      <c r="K17" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="L17" s="144" t="s">
+      <c r="L17" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="142" t="s">
+      <c r="M17" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="148" t="s">
+      <c r="N17" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="O17" s="149" t="s">
+      <c r="O17" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="P17" s="142" t="s">
+      <c r="P17" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="Q17" s="148" t="s">
+      <c r="Q17" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="R17" s="149" t="s">
+      <c r="R17" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="S17" s="142" t="s">
+      <c r="S17" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="T17" s="148" t="s">
+      <c r="T17" s="123" t="s">
         <v>244</v>
       </c>
-      <c r="U17" s="149" t="s">
+      <c r="U17" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="140"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="115"/>
     </row>
     <row r="18" spans="1:27" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="E18" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="145">
+      <c r="G18" s="120">
         <v>4636</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="121">
         <v>4532</v>
       </c>
-      <c r="I18" s="147">
+      <c r="I18" s="122">
         <v>104</v>
       </c>
-      <c r="J18" s="145">
+      <c r="J18" s="120">
         <v>736373.70000000007</v>
       </c>
-      <c r="K18" s="157">
+      <c r="K18" s="132">
         <f>J18*(H18/G18)</f>
         <v>719854.53157894744</v>
       </c>
-      <c r="L18" s="158">
+      <c r="L18" s="133">
         <f>J18*(I18/G18)</f>
         <v>16519.168421052633</v>
       </c>
-      <c r="M18" s="145">
+      <c r="M18" s="120">
         <v>407232.32</v>
       </c>
-      <c r="N18" s="155">
+      <c r="N18" s="130">
         <f>M18*(H18/G18)</f>
         <v>398096.82360655739</v>
       </c>
-      <c r="O18" s="159">
+      <c r="O18" s="134">
         <f>M18*(I18/G18)</f>
         <v>9135.4963934426232</v>
       </c>
-      <c r="P18" s="145">
+      <c r="P18" s="120">
         <f>J18/5*12</f>
         <v>1767296.8800000004</v>
       </c>
-      <c r="Q18" s="155">
+      <c r="Q18" s="130">
         <f>K18*12/5</f>
         <v>1727650.875789474</v>
       </c>
-      <c r="R18" s="159">
+      <c r="R18" s="134">
         <f>L18/5*12</f>
         <v>39646.004210526313</v>
       </c>
-      <c r="S18" s="145">
+      <c r="S18" s="120">
         <f>M18/5*12</f>
         <v>977357.56800000009</v>
       </c>
-      <c r="T18" s="155">
+      <c r="T18" s="130">
         <f>N18*12/5</f>
         <v>955432.37665573764</v>
       </c>
-      <c r="U18" s="159">
+      <c r="U18" s="134">
         <f>O18/5*12</f>
         <v>21925.191344262297</v>
       </c>
-      <c r="Y18" s="124"/>
+      <c r="Y18" s="99"/>
     </row>
     <row r="20" spans="1:27" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="135" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="196" t="s">
+      <c r="G21" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="196"/>
-      <c r="L21" s="196"/>
-      <c r="M21" s="196"/>
-      <c r="N21" s="196"/>
-      <c r="O21" s="196"/>
-      <c r="P21" s="197" t="s">
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="197"/>
-      <c r="S21" s="197"/>
-      <c r="T21" s="197"/>
-      <c r="U21" s="197"/>
-      <c r="V21" s="195" t="s">
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="171" t="s">
         <v>247</v>
       </c>
-      <c r="W21" s="195"/>
-      <c r="X21" s="195"/>
-      <c r="Y21" s="195"/>
-      <c r="Z21" s="195"/>
-      <c r="AA21" s="195"/>
-    </row>
-    <row r="22" spans="1:27" s="154" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152" t="s">
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="171"/>
+    </row>
+    <row r="22" spans="1:27" s="129" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="153" t="s">
+      <c r="D22" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="142" t="s">
+      <c r="G22" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="143" t="s">
+      <c r="H22" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="144" t="s">
+      <c r="I22" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="142" t="s">
+      <c r="J22" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="143" t="s">
+      <c r="K22" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="144" t="s">
+      <c r="L22" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="142" t="s">
+      <c r="M22" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="148" t="s">
+      <c r="N22" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="O22" s="149" t="s">
+      <c r="O22" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="P22" s="142" t="s">
+      <c r="P22" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="Q22" s="148" t="s">
+      <c r="Q22" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="R22" s="149" t="s">
+      <c r="R22" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="S22" s="142" t="s">
+      <c r="S22" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="T22" s="148" t="s">
+      <c r="T22" s="123" t="s">
         <v>244</v>
       </c>
-      <c r="U22" s="149" t="s">
+      <c r="U22" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="V22" s="142" t="s">
+      <c r="V22" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="W22" s="148" t="s">
+      <c r="W22" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="X22" s="149" t="s">
+      <c r="X22" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="Y22" s="142" t="s">
+      <c r="Y22" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="Z22" s="148" t="s">
+      <c r="Z22" s="123" t="s">
         <v>244</v>
       </c>
-      <c r="AA22" s="149" t="s">
+      <c r="AA22" s="124" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="126" t="s">
+      <c r="E23" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="126" t="s">
+      <c r="F23" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="145">
+      <c r="G23" s="120">
         <v>4636</v>
       </c>
-      <c r="H23" s="146">
+      <c r="H23" s="121">
         <v>4532</v>
       </c>
-      <c r="I23" s="147">
+      <c r="I23" s="122">
         <v>104</v>
       </c>
-      <c r="J23" s="145">
+      <c r="J23" s="120">
         <v>736373.70000000007</v>
       </c>
-      <c r="K23" s="157">
+      <c r="K23" s="132">
         <f>J23*(H23/G23)</f>
         <v>719854.53157894744</v>
       </c>
-      <c r="L23" s="158">
+      <c r="L23" s="133">
         <f>J23*(I23/G23)</f>
         <v>16519.168421052633</v>
       </c>
-      <c r="M23" s="145">
+      <c r="M23" s="120">
         <v>407232.32</v>
       </c>
-      <c r="N23" s="155">
+      <c r="N23" s="130">
         <f>M23*(H23/G23)</f>
         <v>398096.82360655739</v>
       </c>
-      <c r="O23" s="159">
+      <c r="O23" s="134">
         <f>M23*(I23/G23)</f>
         <v>9135.4963934426232</v>
       </c>
-      <c r="P23" s="145">
+      <c r="P23" s="120">
         <f>J23/5*12</f>
         <v>1767296.8800000004</v>
       </c>
-      <c r="Q23" s="155">
+      <c r="Q23" s="130">
         <f>K23*12/5</f>
         <v>1727650.875789474</v>
       </c>
-      <c r="R23" s="163">
+      <c r="R23" s="138">
         <f>L23/5*12</f>
         <v>39646.004210526313</v>
       </c>
-      <c r="S23" s="145">
+      <c r="S23" s="120">
         <f>M23/5*12</f>
         <v>977357.56800000009</v>
       </c>
-      <c r="T23" s="155">
+      <c r="T23" s="130">
         <f>N23*12/5</f>
         <v>955432.37665573764</v>
       </c>
-      <c r="U23" s="165">
+      <c r="U23" s="140">
         <f>O23/5*12</f>
         <v>21925.191344262297</v>
       </c>
-      <c r="V23" s="145">
+      <c r="V23" s="120">
         <f>SUM(W23:X23)</f>
         <v>1859438.2600421056</v>
       </c>
-      <c r="W23" s="190">
+      <c r="W23" s="165">
         <f>Y29</f>
         <v>1819792.2558315792</v>
       </c>
-      <c r="X23" s="163">
+      <c r="X23" s="138">
         <f>R23</f>
         <v>39646.004210526313</v>
       </c>
-      <c r="Y23" s="145">
+      <c r="Y23" s="120">
         <f>SUM(Z23:AA23)</f>
         <v>885216.18795789464</v>
       </c>
-      <c r="Z23" s="166">
+      <c r="Z23" s="141">
         <f>Y38</f>
         <v>863290.99661363231</v>
       </c>
-      <c r="AA23" s="165">
+      <c r="AA23" s="140">
         <f>U23</f>
         <v>21925.191344262297</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M25" s="188" t="s">
+    <row r="24" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="N25" s="167"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="168"/>
-      <c r="Q25" s="169" t="s">
+      <c r="N25" s="142"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="R25" s="170" t="s">
+      <c r="R25" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="170" t="s">
+      <c r="S25" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="T25" s="170" t="s">
+      <c r="T25" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="U25" s="170" t="s">
+      <c r="U25" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="V25" s="170" t="s">
+      <c r="V25" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="W25" s="170" t="s">
+      <c r="W25" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="X25" s="170" t="s">
+      <c r="X25" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="Y25" s="170" t="s">
+      <c r="Y25" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="171"/>
-    </row>
-    <row r="26" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N26" s="172"/>
-      <c r="O26" s="161" t="s">
+      <c r="Z25" s="143"/>
+      <c r="AA25" s="146"/>
+    </row>
+    <row r="26" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="147"/>
+      <c r="O26" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="Q26" s="173">
+      <c r="Q26" s="148">
         <f>K23</f>
         <v>719854.53157894744</v>
       </c>
-      <c r="R26" s="174">
+      <c r="R26" s="149">
         <f>($K$23/5)</f>
         <v>143970.9063157895</v>
       </c>
-      <c r="S26" s="174">
+      <c r="S26" s="149">
         <f t="shared" ref="S26:X26" si="0">($K$23/5)</f>
         <v>143970.9063157895</v>
       </c>
-      <c r="T26" s="174">
+      <c r="T26" s="149">
         <f t="shared" si="0"/>
         <v>143970.9063157895</v>
       </c>
-      <c r="U26" s="174">
+      <c r="U26" s="149">
         <f t="shared" si="0"/>
         <v>143970.9063157895</v>
       </c>
-      <c r="V26" s="174">
+      <c r="V26" s="149">
         <f t="shared" si="0"/>
         <v>143970.9063157895</v>
       </c>
-      <c r="W26" s="174">
+      <c r="W26" s="149">
         <f t="shared" si="0"/>
         <v>143970.9063157895</v>
       </c>
-      <c r="X26" s="174">
+      <c r="X26" s="149">
         <f t="shared" si="0"/>
         <v>143970.9063157895</v>
       </c>
-      <c r="Y26" s="174">
+      <c r="Y26" s="149">
         <f>SUM(Q26:X26)</f>
         <v>1727650.8757894742</v>
       </c>
-      <c r="AA26" s="175"/>
-    </row>
-    <row r="27" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="172"/>
-      <c r="AA27" s="175"/>
-    </row>
-    <row r="28" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N28" s="172"/>
-      <c r="Q28" s="176" t="s">
+      <c r="AA26" s="150"/>
+    </row>
+    <row r="27" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="147"/>
+      <c r="AA27" s="150"/>
+    </row>
+    <row r="28" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="147"/>
+      <c r="Q28" s="151" t="s">
         <v>249</v>
       </c>
-      <c r="R28" s="136" t="s">
+      <c r="R28" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="S28" s="136" t="s">
+      <c r="S28" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="136" t="s">
+      <c r="T28" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="U28" s="136" t="s">
+      <c r="U28" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="V28" s="136" t="s">
+      <c r="V28" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="W28" s="136" t="s">
+      <c r="W28" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="X28" s="136" t="s">
+      <c r="X28" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="Y28" s="136" t="s">
+      <c r="Y28" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="AA28" s="175"/>
-    </row>
-    <row r="29" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="172"/>
-      <c r="O29" s="161" t="s">
+      <c r="AA28" s="150"/>
+    </row>
+    <row r="29" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="147"/>
+      <c r="O29" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="Q29" s="173">
+      <c r="Q29" s="148">
         <f>Q26</f>
         <v>719854.53157894744</v>
       </c>
-      <c r="R29" s="173">
+      <c r="R29" s="148">
         <f>R26</f>
         <v>143970.9063157895</v>
       </c>
-      <c r="S29" s="173">
+      <c r="S29" s="148">
         <f>S26</f>
         <v>143970.9063157895</v>
       </c>
-      <c r="T29" s="173">
+      <c r="T29" s="148">
         <f>T26</f>
         <v>143970.9063157895</v>
       </c>
-      <c r="U29" s="174">
+      <c r="U29" s="149">
         <f>U26*(1-$F$12)</f>
         <v>167006.2513263158</v>
       </c>
-      <c r="V29" s="174">
+      <c r="V29" s="149">
         <f>V26*(1-$F$12)</f>
         <v>167006.2513263158</v>
       </c>
-      <c r="W29" s="174">
+      <c r="W29" s="149">
         <f>W26*(1-$F$12)</f>
         <v>167006.2513263158</v>
       </c>
-      <c r="X29" s="174">
+      <c r="X29" s="149">
         <f>X26*(1-$F$12)</f>
         <v>167006.2513263158</v>
       </c>
-      <c r="Y29" s="189">
+      <c r="Y29" s="164">
         <f>SUM(Q29:X29)</f>
         <v>1819792.2558315792</v>
       </c>
-      <c r="AA29" s="175"/>
-    </row>
-    <row r="30" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N30" s="172"/>
-      <c r="AA30" s="175"/>
-    </row>
-    <row r="31" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N31" s="172"/>
-      <c r="AA31" s="175"/>
-    </row>
-    <row r="32" spans="1:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="172"/>
-      <c r="O32" s="161" t="s">
+      <c r="AA29" s="150"/>
+    </row>
+    <row r="30" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="147"/>
+      <c r="AA30" s="150"/>
+    </row>
+    <row r="31" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="147"/>
+      <c r="AA31" s="150"/>
+    </row>
+    <row r="32" spans="1:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="147"/>
+      <c r="O32" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="Q32" s="161">
+      <c r="Q32" s="136">
         <f>K23/H23</f>
         <v>158.83815789473687</v>
       </c>
-      <c r="AA32" s="175"/>
-    </row>
-    <row r="33" spans="14:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N33" s="172"/>
-      <c r="O33" s="161" t="s">
+      <c r="AA32" s="150"/>
+    </row>
+    <row r="33" spans="14:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="147"/>
+      <c r="O33" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="Q33" s="161">
+      <c r="Q33" s="136">
         <f>Q32*(1-F12)</f>
         <v>184.25226315789476</v>
       </c>
-      <c r="AA33" s="175"/>
-    </row>
-    <row r="34" spans="14:27" s="161" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N34" s="172"/>
-      <c r="O34" s="161" t="s">
+      <c r="AA33" s="150"/>
+    </row>
+    <row r="34" spans="14:27" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="147"/>
+      <c r="O34" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="Q34" s="177">
+      <c r="Q34" s="152">
         <f>H23/5</f>
         <v>906.4</v>
       </c>
-      <c r="AA34" s="175"/>
+      <c r="AA34" s="150"/>
     </row>
     <row r="35" spans="14:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="N35" s="178"/>
-      <c r="O35" s="161" t="s">
+      <c r="N35" s="153"/>
+      <c r="O35" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="Q35" s="177">
+      <c r="Q35" s="152">
         <f>(Q32-Q33)*Q34</f>
         <v>-23035.345010526315</v>
       </c>
-      <c r="S35" s="179"/>
-      <c r="AA35" s="180"/>
+      <c r="S35" s="154"/>
+      <c r="AA35" s="155"/>
     </row>
     <row r="36" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N36" s="178"/>
-      <c r="AA36" s="180"/>
+      <c r="N36" s="153"/>
+      <c r="AA36" s="155"/>
     </row>
     <row r="37" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N37" s="178"/>
-      <c r="O37" s="161" t="s">
+      <c r="N37" s="153"/>
+      <c r="O37" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="Q37" s="164" t="s">
+      <c r="Q37" s="139" t="s">
         <v>249</v>
       </c>
-      <c r="R37" s="136" t="s">
+      <c r="R37" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="S37" s="136" t="s">
+      <c r="S37" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="T37" s="136" t="s">
+      <c r="T37" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="U37" s="136" t="s">
+      <c r="U37" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="V37" s="136" t="s">
+      <c r="V37" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="W37" s="136" t="s">
+      <c r="W37" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="X37" s="136" t="s">
+      <c r="X37" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="Y37" s="136" t="s">
+      <c r="Y37" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="AA37" s="180"/>
+      <c r="AA37" s="155"/>
     </row>
     <row r="38" spans="14:27" x14ac:dyDescent="0.3">
-      <c r="N38" s="181"/>
-      <c r="O38" s="182"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="183">
+      <c r="N38" s="156"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="158">
         <f>N23</f>
         <v>398096.82360655739</v>
       </c>
-      <c r="R38" s="184">
+      <c r="R38" s="159">
         <f>$Q$38/5</f>
         <v>79619.364721311475</v>
       </c>
-      <c r="S38" s="184">
+      <c r="S38" s="159">
         <f t="shared" ref="S38:T38" si="1">$Q$38/5</f>
         <v>79619.364721311475</v>
       </c>
-      <c r="T38" s="184">
+      <c r="T38" s="159">
         <f t="shared" si="1"/>
         <v>79619.364721311475</v>
       </c>
-      <c r="U38" s="185">
+      <c r="U38" s="160">
         <f>T38+Q35</f>
         <v>56584.019710785156</v>
       </c>
-      <c r="V38" s="185">
+      <c r="V38" s="160">
         <f>U38+R35</f>
         <v>56584.019710785156</v>
       </c>
-      <c r="W38" s="185">
+      <c r="W38" s="160">
         <f t="shared" ref="W38:X38" si="2">V38+S35</f>
         <v>56584.019710785156</v>
       </c>
-      <c r="X38" s="185">
+      <c r="X38" s="160">
         <f t="shared" si="2"/>
         <v>56584.019710785156</v>
       </c>
-      <c r="Y38" s="186">
+      <c r="Y38" s="161">
         <f>SUM(Q38:X38)</f>
         <v>863290.99661363231</v>
       </c>
-      <c r="Z38" s="182"/>
-      <c r="AA38" s="187"/>
+      <c r="Z38" s="157"/>
+      <c r="AA38" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10153,1670 +10063,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988B0B7A-0AC2-4AAD-9E1F-0F9B8C6ABF85}">
-  <dimension ref="A3:S48"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" customWidth="1"/>
-    <col min="15" max="15" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="20">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="91">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="M16" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="N16" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="O16" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="P16" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q16" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="R16" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="S16" s="110" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" s="102">
-        <v>50</v>
-      </c>
-      <c r="K17" s="102">
-        <v>14569</v>
-      </c>
-      <c r="L17" s="102">
-        <v>0</v>
-      </c>
-      <c r="M17" s="102">
-        <v>14569</v>
-      </c>
-      <c r="N17" s="102">
-        <v>0</v>
-      </c>
-      <c r="O17" s="102">
-        <v>0</v>
-      </c>
-      <c r="P17" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="111">
-        <v>0</v>
-      </c>
-      <c r="R17" s="111">
-        <v>0</v>
-      </c>
-      <c r="S17" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" s="102">
-        <v>1</v>
-      </c>
-      <c r="K18" s="102">
-        <v>4230</v>
-      </c>
-      <c r="L18" s="102">
-        <v>0</v>
-      </c>
-      <c r="M18" s="102">
-        <v>4230</v>
-      </c>
-      <c r="N18" s="102">
-        <v>0</v>
-      </c>
-      <c r="O18" s="102">
-        <v>0</v>
-      </c>
-      <c r="P18" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="111">
-        <v>0</v>
-      </c>
-      <c r="R18" s="111">
-        <v>0</v>
-      </c>
-      <c r="S18" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="102">
-        <v>1</v>
-      </c>
-      <c r="K19" s="102">
-        <v>874</v>
-      </c>
-      <c r="L19" s="102">
-        <v>0</v>
-      </c>
-      <c r="M19" s="102">
-        <v>874</v>
-      </c>
-      <c r="N19" s="102">
-        <v>0</v>
-      </c>
-      <c r="O19" s="102">
-        <v>0</v>
-      </c>
-      <c r="P19" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="111">
-        <v>0</v>
-      </c>
-      <c r="R19" s="111">
-        <v>0</v>
-      </c>
-      <c r="S19" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="102">
-        <v>1</v>
-      </c>
-      <c r="K20" s="102">
-        <v>1109</v>
-      </c>
-      <c r="L20" s="102">
-        <v>0</v>
-      </c>
-      <c r="M20" s="102">
-        <v>1109</v>
-      </c>
-      <c r="N20" s="102">
-        <v>0</v>
-      </c>
-      <c r="O20" s="102">
-        <v>0</v>
-      </c>
-      <c r="P20" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="111">
-        <v>0</v>
-      </c>
-      <c r="R20" s="111">
-        <v>0</v>
-      </c>
-      <c r="S20" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J21" s="102">
-        <v>1</v>
-      </c>
-      <c r="K21" s="102">
-        <v>1109</v>
-      </c>
-      <c r="L21" s="102">
-        <v>0</v>
-      </c>
-      <c r="M21" s="102">
-        <v>1109</v>
-      </c>
-      <c r="N21" s="102">
-        <v>0</v>
-      </c>
-      <c r="O21" s="102">
-        <v>0</v>
-      </c>
-      <c r="P21" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="111">
-        <v>0</v>
-      </c>
-      <c r="R21" s="111">
-        <v>0</v>
-      </c>
-      <c r="S21" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" s="101" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J22" s="102">
-        <v>1</v>
-      </c>
-      <c r="K22" s="102">
-        <v>3058</v>
-      </c>
-      <c r="L22" s="102">
-        <v>0</v>
-      </c>
-      <c r="M22" s="102">
-        <v>3058</v>
-      </c>
-      <c r="N22" s="102">
-        <v>0</v>
-      </c>
-      <c r="O22" s="102">
-        <v>0</v>
-      </c>
-      <c r="P22" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="111">
-        <v>0</v>
-      </c>
-      <c r="R22" s="111">
-        <v>0</v>
-      </c>
-      <c r="S22" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="101" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I23" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J23" s="102">
-        <v>49</v>
-      </c>
-      <c r="K23" s="102">
-        <v>6453.3</v>
-      </c>
-      <c r="L23" s="102">
-        <v>0</v>
-      </c>
-      <c r="M23" s="102">
-        <v>6453.3</v>
-      </c>
-      <c r="N23" s="102">
-        <v>0</v>
-      </c>
-      <c r="O23" s="102">
-        <v>0</v>
-      </c>
-      <c r="P23" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="111">
-        <v>0</v>
-      </c>
-      <c r="R23" s="111">
-        <v>0</v>
-      </c>
-      <c r="S23" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J24" s="105">
-        <v>29</v>
-      </c>
-      <c r="K24" s="105">
-        <v>8450.02</v>
-      </c>
-      <c r="L24" s="105">
-        <v>8450.02</v>
-      </c>
-      <c r="M24" s="105">
-        <v>0</v>
-      </c>
-      <c r="N24" s="105">
-        <v>112.42</v>
-      </c>
-      <c r="O24" s="105">
-        <v>0</v>
-      </c>
-      <c r="P24" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="112">
-        <v>0</v>
-      </c>
-      <c r="R24" s="112">
-        <v>0</v>
-      </c>
-      <c r="S24" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J25" s="105">
-        <v>5</v>
-      </c>
-      <c r="K25" s="105">
-        <v>1237.9000000000001</v>
-      </c>
-      <c r="L25" s="105">
-        <v>1237.9000000000001</v>
-      </c>
-      <c r="M25" s="105">
-        <v>0</v>
-      </c>
-      <c r="N25" s="105">
-        <v>118.4</v>
-      </c>
-      <c r="O25" s="105">
-        <v>0</v>
-      </c>
-      <c r="P25" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="112">
-        <v>0</v>
-      </c>
-      <c r="R25" s="112">
-        <v>0</v>
-      </c>
-      <c r="S25" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" s="105">
-        <v>1767</v>
-      </c>
-      <c r="K26" s="105">
-        <v>51313.68</v>
-      </c>
-      <c r="L26" s="105">
-        <v>51313.68</v>
-      </c>
-      <c r="M26" s="105">
-        <v>0</v>
-      </c>
-      <c r="N26" s="105">
-        <v>3578.18</v>
-      </c>
-      <c r="O26" s="105">
-        <v>0</v>
-      </c>
-      <c r="P26" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="112">
-        <v>0</v>
-      </c>
-      <c r="R26" s="112">
-        <v>0</v>
-      </c>
-      <c r="S26" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J27" s="105">
-        <v>2731</v>
-      </c>
-      <c r="K27" s="105">
-        <v>643969.80000000005</v>
-      </c>
-      <c r="L27" s="105">
-        <v>643969.80000000005</v>
-      </c>
-      <c r="M27" s="105">
-        <v>0</v>
-      </c>
-      <c r="N27" s="105">
-        <v>403423.32</v>
-      </c>
-      <c r="O27" s="105">
-        <v>0</v>
-      </c>
-      <c r="P27" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="112">
-        <v>0</v>
-      </c>
-      <c r="R27" s="112">
-        <v>0</v>
-      </c>
-      <c r="S27" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="108">
-        <v>4636</v>
-      </c>
-      <c r="K28" s="108">
-        <v>736373.70000000019</v>
-      </c>
-      <c r="L28" s="108">
-        <v>704971.40000000014</v>
-      </c>
-      <c r="M28" s="108">
-        <v>31402.3</v>
-      </c>
-      <c r="N28" s="108">
-        <v>407232.32</v>
-      </c>
-      <c r="O28" s="108">
-        <v>0</v>
-      </c>
-      <c r="P28" s="113">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="113">
-        <v>0</v>
-      </c>
-      <c r="R28" s="113">
-        <v>0</v>
-      </c>
-      <c r="S28" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="K36" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="L36" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="M36" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="N36" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="O36" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="P36" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q36" s="110" t="s">
-        <v>230</v>
-      </c>
-      <c r="R36" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="S36" s="110" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G37" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="H37" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J37" s="102">
-        <v>50</v>
-      </c>
-      <c r="K37" s="102">
-        <v>14569</v>
-      </c>
-      <c r="L37" s="102">
-        <v>0</v>
-      </c>
-      <c r="M37" s="102">
-        <v>14569</v>
-      </c>
-      <c r="N37" s="102">
-        <v>0</v>
-      </c>
-      <c r="O37" s="102">
-        <v>0</v>
-      </c>
-      <c r="P37" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="111">
-        <v>0</v>
-      </c>
-      <c r="R37" s="111">
-        <v>0</v>
-      </c>
-      <c r="S37" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J38" s="102">
-        <v>1</v>
-      </c>
-      <c r="K38" s="102">
-        <v>4230</v>
-      </c>
-      <c r="L38" s="102">
-        <v>0</v>
-      </c>
-      <c r="M38" s="102">
-        <v>4230</v>
-      </c>
-      <c r="N38" s="102">
-        <v>0</v>
-      </c>
-      <c r="O38" s="102">
-        <v>0</v>
-      </c>
-      <c r="P38" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="111">
-        <v>0</v>
-      </c>
-      <c r="R38" s="111">
-        <v>0</v>
-      </c>
-      <c r="S38" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="H39" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J39" s="102">
-        <v>1</v>
-      </c>
-      <c r="K39" s="102">
-        <v>874</v>
-      </c>
-      <c r="L39" s="102">
-        <v>0</v>
-      </c>
-      <c r="M39" s="102">
-        <v>874</v>
-      </c>
-      <c r="N39" s="102">
-        <v>0</v>
-      </c>
-      <c r="O39" s="102">
-        <v>0</v>
-      </c>
-      <c r="P39" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="111">
-        <v>0</v>
-      </c>
-      <c r="R39" s="111">
-        <v>0</v>
-      </c>
-      <c r="S39" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J40" s="102">
-        <v>1</v>
-      </c>
-      <c r="K40" s="102">
-        <v>1109</v>
-      </c>
-      <c r="L40" s="102">
-        <v>0</v>
-      </c>
-      <c r="M40" s="102">
-        <v>1109</v>
-      </c>
-      <c r="N40" s="102">
-        <v>0</v>
-      </c>
-      <c r="O40" s="102">
-        <v>0</v>
-      </c>
-      <c r="P40" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="111">
-        <v>0</v>
-      </c>
-      <c r="R40" s="111">
-        <v>0</v>
-      </c>
-      <c r="S40" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" s="102">
-        <v>1</v>
-      </c>
-      <c r="K41" s="102">
-        <v>1109</v>
-      </c>
-      <c r="L41" s="102">
-        <v>0</v>
-      </c>
-      <c r="M41" s="102">
-        <v>1109</v>
-      </c>
-      <c r="N41" s="102">
-        <v>0</v>
-      </c>
-      <c r="O41" s="102">
-        <v>0</v>
-      </c>
-      <c r="P41" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="111">
-        <v>0</v>
-      </c>
-      <c r="R41" s="111">
-        <v>0</v>
-      </c>
-      <c r="S41" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="E42" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="G42" s="101" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="102">
-        <v>1</v>
-      </c>
-      <c r="K42" s="102">
-        <v>3058</v>
-      </c>
-      <c r="L42" s="102">
-        <v>0</v>
-      </c>
-      <c r="M42" s="102">
-        <v>3058</v>
-      </c>
-      <c r="N42" s="102">
-        <v>0</v>
-      </c>
-      <c r="O42" s="102">
-        <v>0</v>
-      </c>
-      <c r="P42" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="111">
-        <v>0</v>
-      </c>
-      <c r="R42" s="111">
-        <v>0</v>
-      </c>
-      <c r="S42" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="101" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="G43" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" s="102">
-        <v>49</v>
-      </c>
-      <c r="K43" s="102">
-        <v>6453.3</v>
-      </c>
-      <c r="L43" s="102">
-        <v>0</v>
-      </c>
-      <c r="M43" s="102">
-        <v>6453.3</v>
-      </c>
-      <c r="N43" s="102">
-        <v>0</v>
-      </c>
-      <c r="O43" s="102">
-        <v>0</v>
-      </c>
-      <c r="P43" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="111">
-        <v>0</v>
-      </c>
-      <c r="R43" s="111">
-        <v>0</v>
-      </c>
-      <c r="S43" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="G44" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I44" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="105">
-        <v>29</v>
-      </c>
-      <c r="K44" s="105">
-        <v>8450.02</v>
-      </c>
-      <c r="L44" s="105">
-        <v>8450.02</v>
-      </c>
-      <c r="M44" s="105">
-        <v>0</v>
-      </c>
-      <c r="N44" s="105">
-        <v>112.42</v>
-      </c>
-      <c r="O44" s="105">
-        <v>0</v>
-      </c>
-      <c r="P44" s="112">
-        <v>-1081.60256</v>
-      </c>
-      <c r="Q44" s="112">
-        <v>-811.76335999999947</v>
-      </c>
-      <c r="R44" s="112">
-        <v>0</v>
-      </c>
-      <c r="S44" s="112">
-        <v>21361.650559999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="G45" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I45" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" s="105">
-        <v>5</v>
-      </c>
-      <c r="K45" s="105">
-        <v>1237.9000000000001</v>
-      </c>
-      <c r="L45" s="105">
-        <v>1237.9000000000001</v>
-      </c>
-      <c r="M45" s="105">
-        <v>0</v>
-      </c>
-      <c r="N45" s="105">
-        <v>118.4</v>
-      </c>
-      <c r="O45" s="105">
-        <v>0</v>
-      </c>
-      <c r="P45" s="112">
-        <v>-158.4512</v>
-      </c>
-      <c r="Q45" s="112">
-        <v>125.70879999999974</v>
-      </c>
-      <c r="R45" s="112">
-        <v>0</v>
-      </c>
-      <c r="S45" s="112">
-        <v>3129.4112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="H46" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I46" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J46" s="105">
-        <v>1767</v>
-      </c>
-      <c r="K46" s="105">
-        <v>51313.68</v>
-      </c>
-      <c r="L46" s="105">
-        <v>51313.68</v>
-      </c>
-      <c r="M46" s="105">
-        <v>0</v>
-      </c>
-      <c r="N46" s="105">
-        <v>3578.18</v>
-      </c>
-      <c r="O46" s="105">
-        <v>0</v>
-      </c>
-      <c r="P46" s="112">
-        <v>-6568.1510399999997</v>
-      </c>
-      <c r="Q46" s="112">
-        <v>2019.4689600000083</v>
-      </c>
-      <c r="R46" s="112">
-        <v>0</v>
-      </c>
-      <c r="S46" s="112">
-        <v>129720.98303999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="F47" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="H47" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I47" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="J47" s="105">
-        <v>2731</v>
-      </c>
-      <c r="K47" s="105">
-        <v>643969.80000000005</v>
-      </c>
-      <c r="L47" s="105">
-        <v>643969.80000000005</v>
-      </c>
-      <c r="M47" s="105">
-        <v>0</v>
-      </c>
-      <c r="N47" s="105">
-        <v>403423.32</v>
-      </c>
-      <c r="O47" s="105">
-        <v>0</v>
-      </c>
-      <c r="P47" s="112">
-        <v>-82428.13440000001</v>
-      </c>
-      <c r="Q47" s="112">
-        <v>885787.8335999999</v>
-      </c>
-      <c r="R47" s="112">
-        <v>0</v>
-      </c>
-      <c r="S47" s="112">
-        <v>1627955.6544000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="87" customFormat="1" ht="12.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="108">
-        <v>4636</v>
-      </c>
-      <c r="K48" s="108">
-        <v>736373.70000000019</v>
-      </c>
-      <c r="L48" s="108">
-        <v>704971.40000000014</v>
-      </c>
-      <c r="M48" s="108">
-        <v>31402.3</v>
-      </c>
-      <c r="N48" s="108">
-        <v>407232.32</v>
-      </c>
-      <c r="O48" s="108">
-        <v>0</v>
-      </c>
-      <c r="P48" s="113">
-        <v>-90236.339200000017</v>
-      </c>
-      <c r="Q48" s="113">
-        <v>887121.24799999991</v>
-      </c>
-      <c r="R48" s="113">
-        <v>0</v>
-      </c>
-      <c r="S48" s="113">
-        <v>1782167.6992000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"ABB Excel Template","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Notes xmlns="7c4e361e-a823-4c3b-81dd-359a074a1526" xsi:nil="true"/>
@@ -11824,15 +10079,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"ABB Excel Template","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B7548F8C8F7B947AB880343DDDBC468" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4410375f82a90a53dd8fd389ec51aae7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c4e361e-a823-4c3b-81dd-359a074a1526" xmlns:ns3="b25c32c9-0745-4399-8627-ba940898083f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77d73466d7279468fcf8b00419fbe4d0" ns2:_="" ns3:_="">
     <xsd:import namespace="7c4e361e-a823-4c3b-81dd-359a074a1526"/>
@@ -12041,16 +10297,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFE24D-024C-4D19-9BBA-2FD568CDA0AE}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330AB371-4956-474F-B192-5E83C364172A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{505F9358-8348-4468-B1E0-CAAD5FFDCD4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -12067,19 +10326,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330AB371-4956-474F-B192-5E83C364172A}">
-  <ds:schemaRefs/>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E4A3BD-6694-4E6B-8204-B910746D2F14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFE24D-024C-4D19-9BBA-2FD568CDA0AE}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350D609C-264E-48FB-9649-C91508058655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12098,14 +10353,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E4A3BD-6694-4E6B-8204-B910746D2F14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d792d246-d363-40e2-82bc-6f0655128b68}" enabled="1" method="Standard" siteId="{372ee9e0-9ce0-4033-a64a-c07073a91ecd}" removed="0"/>
